--- a/roadmap.xlsx
+++ b/roadmap.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20730" windowHeight="9555" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="roadmap" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>S.No</t>
   </si>
@@ -48,13 +48,25 @@
   </si>
   <si>
     <t>Test Plan for uart_vip</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>Spec section</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Verification criteria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +198,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -532,7 +552,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -546,7 +566,15 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -888,19 +916,19 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1166,33 +1194,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" ht="31.5" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
